--- a/config_6.8/banner_style_ui.xlsx
+++ b/config_6.8/banner_style_ui.xlsx
@@ -837,9 +837,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -899,25 +899,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,15 +930,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,30 +938,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,6 +952,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -997,16 +989,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,7 +1015,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,14 +1038,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,7 +1117,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,67 +1273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,91 +1285,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1297,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,30 +1327,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1369,6 +1345,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1377,8 +1392,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,32 +1423,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1431,10 +1431,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,133 +1443,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2098,10 +2098,10 @@
   <sheetPr/>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
+      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4863,10 +4863,10 @@
         <v>19</v>
       </c>
       <c r="K90" s="7">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="L90" s="7">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:12">
@@ -4991,7 +4991,7 @@
         <v>1623110400</v>
       </c>
       <c r="L94" s="7">
-        <v>1628351999</v>
+        <v>1628265599</v>
       </c>
     </row>
     <row r="95" spans="1:12">

--- a/config_6.8/banner_style_ui.xlsx
+++ b/config_6.8/banner_style_ui.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="192">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -822,6 +822,12 @@
     <t>"act_cjdb","panel"</t>
   </si>
   <si>
+    <t>通行证</t>
+  </si>
+  <si>
+    <t>"sys_txz","panel"</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -830,10 +836,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -894,13 +900,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -908,32 +913,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -948,47 +951,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,7 +966,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1008,7 +990,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1024,7 +1006,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,6 +1030,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,43 +1117,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,7 +1159,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,43 +1219,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1255,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,37 +1285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,56 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1394,11 +1350,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,10 +1431,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1437,133 +1443,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2092,10 +2098,10 @@
   <sheetPr/>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4970,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>187</v>
@@ -4988,12 +4994,41 @@
         <v>1628351999</v>
       </c>
     </row>
-    <row r="95" spans="10:10">
-      <c r="J95" s="1"/>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>112</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" s="26">
+        <v>-1</v>
+      </c>
+      <c r="L95" s="26">
+        <v>-1</v>
+      </c>
     </row>
     <row r="98" spans="11:11">
       <c r="K98" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.8/banner_style_ui.xlsx
+++ b/config_6.8/banner_style_ui.xlsx
@@ -825,7 +825,7 @@
     <t>通行证</t>
   </si>
   <si>
-    <t>"sys_txz","panel"</t>
+    <t>"sys_txz","panel_open"</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -836,9 +836,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -899,22 +899,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -923,7 +907,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,29 +930,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,9 +951,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -991,15 +1022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,23 +1030,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,13 +1038,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,13 +1117,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,25 +1261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,139 +1291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,6 +1327,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1345,22 +1380,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1379,50 +1423,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1431,145 +1431,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2098,10 +2098,10 @@
   <sheetPr/>
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K90" sqref="K90"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4994,7 +4994,7 @@
         <v>1628265599</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" customFormat="1" spans="1:12">
       <c r="A95">
         <v>94</v>
       </c>
